--- a/lab4/data/dou_data_clear.xlsx
+++ b/lab4/data/dou_data_clear.xlsx
@@ -489,12 +489,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>data analysis, statistics, data visualization, sql, data modeling, machine learning, artificial intelligence, python, software development, research, academic writing</t>
+          <t>data analysis, sql, bi tools, tableau, amplitude, bigquery, python, pandas, data visualization, ab testing, product growth, marketing strategy, goal setting</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>international environment, flexible working hours, remote work, professional growth, team collaboration</t>
+          <t>large space for personal ideas, professional team, international environment, training and development, corporate library, health insurance</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -579,12 +579,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sql, python, statistics, probability, data visualization, amplitude, appsflyer, aws, machine learning, analytics, data analysis, problem solving, international environment, opportunity for growth, flexible work, diverse teams</t>
+          <t>data analysis, data visualization, sql, python, statistics, probability, traffic analysis, market research, campaign analysis, product growth, ios, amplitude, tableau, data mining</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, flexible work format, career growth, training and development, relocation package, social benefits, well-being program, support during wartime</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -693,17 +693,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Over the space</t>
+          <t>o v a b r o a d 
+Result: overseas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>data analysis, data verification, data interpretation, critical thinking, problem solving, teamwork, collaboration, problem management, learning, adaption, sql, data visualization</t>
+          <t>data analysis, data verification, critical thinking, teamwork, time management, financial reporting, excel, sql, python, pandas, data visualization, tableau, relational databases, bi tools</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>professional growth, career development, international environment, rapid innovation, technological superiority, partner companies, work-life balance, growth opportunities, professional networking</t>
+          <t>modern equipment, comfortable working conditions, inspiring environment, paid leave, health insurance, additional days off, career growth, continuous development</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, business intelligence, sql, power bi, player behavior analysis, trend identification, data mining, kpi management, marketing analysis, finance analysis, product analysis, cross-functional collaboration</t>
+          <t>data analysis, data visualization, sql, power bi, statistical analysis, ab testing, data mining, business intelligence, machine learning, player behavior analysis, marketing analysis, finance analysis, gamification</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>financial stability, competitive salary, individual bonuses, remote work, flexible schedule, professional growth, networking opportunities, modern team, start-up environment, open communication, unlimited vacation time</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -884,12 +885,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, data infrastructure, java, statistical analysis, problem solving, tracking quality improvement, scalability</t>
+          <t>java, python, amplitude, data instrumentation, data visualization, dashboard creation, data warehousing, snowflake, dbt, fivetran, warehouse management, e-commerce analytics, sql, data integration, analysis, problem-solving, GTM, webhooks, pixels, elevar, cro, sql, data storage</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>international collaboration, fast-paced environment, professional growth</t>
+          <t>long-term remote work, career growth, international environment, flexible schedule, work-life balance, professional development</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -948,12 +949,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, power bi, microsoft excel, sql, data management, real estate development, property tax, affordable housing, communication, problem solving, project management</t>
+          <t>data analysis, data visualization, power bi, sql, relational databases, google sheets, machine learning, natural language processing, creativity, problem solving, data accuracy, communication, english language</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, workplace diversity, career growth, skill development, flexible schedule, competitive salary, salary reviews, employee happiness</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1014,7 +1015,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, data modeling, sql, dbt, time series analysis, forecasting, marketing analytics, product optimization, commercial analysis, data optimization, problem solving</t>
+          <t>data analysis, data visualization, sql, dbt, statistical concepts, statistical modeling, regression modeling, multivariate analysis, time series analysis, hypothesis testing, a/b testing, pca, machine learning, data warehousing, data modeling, data wrangling, data transformation, power bi, looker, tableau, python, pandas, scikit-learn, numpy, software development, project management, team collaboration, stakeholder engagement, reporting, presentation, english language</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1088,12 +1089,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>sql, google sheets/excel, bi tools (metabase/louker/tableau), data visualization, machine learning, predictive analytics, data modeling, statistical analysis, cause-and-effect analysis, funnel analysis, payment behavior analysis, retention analysis, analytical thinking</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>full distance work, flexible schedule, direct impact, collaborative team, minimal bureaucracy, real users, live traffic, access to data, opportunities for growth, customer experience</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1159,7 +1160,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data visualization, power bi, sql, python, game development, mobile applications, ios, tvos, android, revenue planning, marketing indicators, software development, database management, data cleaning, data optimization, statistical analysis, mathematical statistics, roi analysis, arpu, ltv, educational technology, educational software, child development</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1230,12 +1231,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, python, statistics, machine learning</t>
+          <t>data analysis, sql, postgre, bigquery, data visualization, google sheets, lookerstudio, appsheet, google cloud, script writing, data migration, data cleaning, normalization, relational databases</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>professional growth, career development, international environment, team work, flexible work schedule</t>
+          <t>guaranteed stability, official employment, social security, paid vacations, hospitals, military service booking, company car and fuel, mobile communication, corporate catering, competitive salary, referral program, professional development, supportive work environment, international environment</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1298,17 +1299,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kyiv, hybrid -&gt; Kyiv yogo hybrid</t>
+          <t>Kyiv Ukraine</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>data visualization, data analysis, data mining, sql, python, statistics, probability theory, marketing analytics, campaign monitoring, growth hacking, ltv analysis, customer segmentation, ad optimization, sql, python</t>
+          <t>python, sql, data analysis, data visualization, statistics, probability, marketing analytics, aws, amplitude, jupyter python, ajax, data mining, mathematics, problem solving</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>international team, strong teamwork, career growth, decision maker influence, flexible environment</t>
+          <t>international environment, flexible work format, professional growth opportunities, competitive salary, paid vacation, medical insurance, mental health support, relocation package, career advancement</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1422,12 +1423,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, data mining, sql, statistical analysis, regression, machine learning, python, google cloud platform, bigquery, airflow, tableau, appsflyer, amplitude, ab testing</t>
+          <t>data analysis, data visualization, sql, r, python, data infrastructure, marketing analytics, tableau, airflow, bigquery, product analytics, descriptive analytics, inferential analytics, predictive analytics, hypothesis testing, data quality management, time series analysis, data modeling, forecasting, traffic attribution, a/b testing, data communication, team collaboration, cpi, machine learning</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>relocation support, international environment, professional growth, flexible work, collaborative team, opportunities for advancement</t>
+          <t>international environment, office amenities, medical insurance, full sick pay, professional development, language courses, training and education, corporate holidays, sports and fitness options, employee wellness program, charitable initiative support</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1506,12 +1507,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, mathematics, statistics, computer science, sql, postgresql, pandas, openpyxl, dax, excel, power bi, python</t>
+          <t>sql, postgresql, python, pandas, openpyxl, power bi, excel, dax, pq, data visualization, data analysis, machine learning, automation, data warehouses, statistics, sql optimization, data aggregation, window functions</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>flexible working hours, professional growth, international environment, dynamic team, professional development, training, career opportunities, company culture</t>
+          <t>official employment, 30 calendar days of vacation, professional growth, career growth, friendly team, international environment, work-life balance, remote work options</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1572,12 +1573,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Please provide the job description for me to parse, or I'll assume you want me to parse an empty job description like this:</t>
+          <t>data analysis, data visualization, statistical analysis, bi instruments, database administration, sql, postgresql, mongodb, nosql, python3, object-oriented programming, pandas, sqlalchemy, numpy, openpyxl, task parallelization, multiprocessing, threading, dask, asynchronous programming, git, version control</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, remote work, career growth, professional development opportunity, experience with various technologies, data-driven decision making</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1625,7 +1626,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, data visualization, sql, bi systems, google analytics, google tags manager, hubspot, attribution logic, data warehousing, data infrastructure, dashboard creation, data storytelling, multi-touch attribution models, marketing funnel analytics, pipeline analytics</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1711,12 +1712,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sql, data analysis, a/b testing, data visualization</t>
+          <t>key skills: data analysis, statistical knowledge, sql, tableau, a/b testing</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>work-life balance, international environment, flexible conditions, career advancement</t>
+          <t>company offers: family atmosphere, global market access, competitive compensation, talent development, equal employment opportunities</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1808,12 +1809,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>project planning, jira, data visualization, software development, backend development, sql, real-time data, apache spark, data analysis, decision-making systems, business analysis, project management, multitasking, documentation, google Workspace, team collaboration, monitoring, system administration.</t>
+          <t>data quality, data visualization, project management, business analysis, data analysis, sql, jira, troubleshooting, documentation, time management, agile, monitoring tools, reporting, collaboration, problem-solving, data distribution analysis, technical writing</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>continuous medical insurance, remote work options, competitive salary, official employment, 24 calendar days of leave, equal opportunities, professional development, flexible work environment, accessibility features in offices</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1884,12 +1885,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, data reporting, microsoft excel, sql, data mining, problem solving, proactive, detail oriented, collaboration</t>
+          <t>data analysis, data visualization, sql, postgresql, tableau, python, relational databases, amazons redshift, quicksight, data quality, data integration</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>freedom of choice, personal budget, bonuses, remote work, flexibility in action, leadership opportunities, career growth opportunities, collaborative environment, international environment</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1950,12 +1951,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sql, data analysis, data visualization, excel, data manipulation, formulas, reporting, testing, test cases, quality assurance, root cause analysis, defect tracking, collaboration, communication</t>
+          <t>sql, data analysis, excel, excel formulas, data manipulation, data validation, qa testing, test cases, defect tracking, root cause analysis, data quality assurance, collaborative work, analytical skills, problem-solving</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>international environment, remote work, professional development, team collaboration, dynamic working, aesthetics industry experience</t>
+          <t>friendly team, agile methodologies, recent technologies, innovation, strategic thinking, internal growth, diversity, creativity, teamwork, flexible working time, education support, vacation days, role switching, office library, tech talks, english classes</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2037,12 +2038,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>required skills: data analysis, data modeling, business process analysis, api, db, model analysis, requirements analysis, sdlc, scrum, kanban, agile, java, test planning</t>
+          <t>data analysis, data modeling, data visualization, requirements gathering, requirements analysis, api design, database design, sql, uml, bpmn, project management, priority setting, business process analysis, stakeholder communication, presention skills, team collaboration, time management, intermediate english, hard skills, sdml, lean development</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>company offers: flexible working environment, international environment, team collaboration, professional development, corporate culture, opportunities for growth</t>
+          <t>official employment, 24 calendar days off, full compensation for sick leave, competitive salary, health insurance, corporate mobile connection, corporate learning, flexible work arrangements, equal opportunities, veterans support, disability support</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2124,12 +2125,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, data visualization, machine learning, sql, postgre, redshift, python, r, excel, data modeling, risk assessment, data automation, data monitoring, crm, performance evaluation</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>official employment, 100% pay transparency, health insurance, tax leader, volunteer opportunities, community involvement, international environment</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2180,19 +2181,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kyiv: remote 
-Odesa: remote 
-Warsaw (Poland): Warsaw</t>
+          <t>Warsaw (Poland) 
+Kyiv
+Odesa - remote</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>data visualization, data analysis, automation, crm management, data quality, marketing analytics, roi analysis, sql, performance optimization, campaign evaluation, email marketing, social media marketing, seo, pipeline management, strategic insights</t>
+          <t>data visualization, sql, google analytics, google tag manager, google data studio, looker, tableax, power bi, data manipulation, data analysis, data modeling, quantitative analysis, marketing automation, crm cleansing, marketing operations, a/b testing, excel, spss or r statistical analysis.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international work environment, professional growth, detailed information verification, strong communication, team work, flexible work schedule, access to third-party tools, training opportunities, higher education allowed, marketing platform certifications.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2253,7 +2254,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>required skills: sql, bigquery, python, pandas, numpy, statistics, probability theory, ab testing, data modeling, cohort analysis, tableau, data pipelines, data visualization</t>
+          <t>python, sql, bigquery, tableau, amplitude, pandas, numpy, статистика, теорія ймовірності, AB-тести, аналітичні моделі, когортний аналіз, енергійність, цікавість до інсайтів, аналітичне мислення, самостійність, свободи дій, міжнародна робота, віддалена робота, гнучкий графік роботи, догляд за здоров'ям, програми особистого розвитку, спортивні програми, допомога в релокації, корпоративна валюта, профілактична медична допомога.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2338,7 +2339,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, bigquery, tableau, amplitude, python, pandas, numpy, statistics, probability theory, ab testing, data modeling, cohort analysis, leadership, management, time series analysis, remote work, full social package</t>
+          <t>none</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2421,12 +2422,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>data analysis, sql, tableau, a/b testing, hypothesis testing, statistical analysis, data visualization, product management, user behavior analysis, research, product growth strategy</t>
+          <t>data analysis, statistical analysis, trend analysis, ab testing, tableau, sql, analytical thinking, problem solving, priority management, communication, python, git, google analytics,</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>flexible working environment, opportunities for international collaboration, professional development, competitive salary, benefits from working with a growing company</t>
+          <t>hybrid work, flexible schedule, paid vacation, health insurance, professional growth opportunities, training, mentoring, career plan, remote work options.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2496,17 +2497,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ab road</t>
+          <t>o v a i r d</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, bi tools, python, data optimization, business strategy</t>
+          <t>data analysis, data visualization, sql, python, tableau, data pipelines, git, gbq data stack, user behavior analysis, funnel analysis, business intelligence, statistical modeling, problem-solving, communication skills, collaboration, project management, english language skills, foreign languages</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>opportunities for career growth, global environment, teamwork, flexible work schedule</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2574,12 +2575,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>data analysis, data verification, data structuring, hypothesis generation, data management, data quality assurance, sql, data visualization, communication, teamwork, time management</t>
+          <t>data analysis, data visualization, data quality, spreadsheet software, programming logic, hypothesis validation, business development, sales operations, data collection, data cleaning, data enrichment, data organization, crm systems, outreach tools, api integration, automation, team collaboration, communication, google sheets, excel</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>flexible working hours, opportunities for professional growth, international environment, collaborative work culture</t>
+          <t>team supportive environment, mentorship, professional growth opportunities, flexible vacation policy, health benefits, technology provided</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2661,12 +2662,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>data management, sql, python, power bi, sap, data tools, dwh, data lake, data lakehouse, etl, bi, big data, iiot, data science, machine learning, ai, analytical tools, business analysis</t>
+          <t>python, sql, data visualization, business analysis, data warehousing, etl, bi, big data, iiot, data science, machine learning, ai, data lake, data lakehouse, power bi, sap, business requirements document, data analysts, requirement gathering, project management</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>teamwork, customer service, project management, time management, data communication, performance verification, result delivery, documentation, company development</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2753,12 +2754,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>data analysis, sql, tableau, python, data visualization, data engineering, microservices architecture</t>
+          <t>sql, tableau, excel, python, data visualization, data integration, data quality, dashboards, data warehousing, sql query tuning, business intelligence, problem solving, communication</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>professional development, international environment, flexible work schedule, team collaboration</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2814,12 +2815,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>python, data analysis, data visualization, tableau, bi, ms excel, sql</t>
+          <t>data visualization, tableau, data analysis, report creation, trend analysis, project management, communication, stakeholder management, analytical skills, problem solving, sql (implied by data analysis), experience with slot games, business intelligence (implied by bi strategy)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>opportunities for growth, dynamic environment, international environment, flexible work arrangement, professional development</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2895,12 +2896,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, python, sql, google cloud platform, bigquery, airflow, dataform, tableau, appsflyer, amplitude, a/b testing, machine learning, marketing analytics</t>
+          <t>data analysis, data visualization, big data, sql, r, python, tableau, data modeling, statistical inference, experimentation, marketing analytics, business intelligence, cloud computing, google cloud platform, airflow, dataform, data quality, data culture, google analytics, ab testing, predictive analytics, data architecture, machine learning</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, flexible work arrangements, personal development, career growth, corporate benefits, health insurance, sick leave compensation, wellness programs, social impact, education sector experience, experienced colleagues, collaborative team, professional communities, training opportunities, education assistance, charitable contributions</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2983,12 +2984,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>data analytics, sql, data visualization, data pipelines, dashboards, statistics, data mining, business intelligence, collaboration, leadership, product development, marketing strategy, attribution modeling</t>
+          <t>data analysis, data visualization, sql, dbt, bigquery, looker, metabase, clickhouse, tableau, git, airflow, product development, growth marketing, marketing attribution, data pipelines, business intelligence, insights, attribution modeling, product funnel analysis</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>comfortable working conditions, international environment, opportunities for career growth, speed, clarity, measurable impact</t>
+          <t>international environment, flexible work conditions, loyalty, transparent evaluation, social package, fair compensation, equal employment opportunities</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3083,7 +3084,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>data visualization, data cleaning, data processing, sql, database development, data collection, data analytics, data management</t>
+          <t>data analysis, database management, sql, python, r, data visualization, data mining, data transformation, data cleaning, pivot tables, macros, power bi, tableau, elt/etl tools, facilitation, communication, time management, project management, multidisciplinary team</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3143,12 +3144,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>data visualization, sql, data analysis, power bi, tableau, window functions, analytical functions, inquiry, statistical knowledge, mathematics, economics, statistics, computer science, finance</t>
+          <t>sql, power bi, sql functions, tableau, data visualization, data modeling, ddbt, python, machine learning, mathematics, statistics, computer science, data warehousing, data orchestration, air flow, hypothesis testing, time series modeling, regression analysis, clustering</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>international environment, flexible schedule, career growth, creativity, autonomy, company mission alignment, team collaboration</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3224,7 +3225,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>python, data analysis, data visualization, sql, research skills, statistics, marketing analysis, product research, customer perspective, analytics tools, creativity, problem solving</t>
+          <t>data analysis, data visualization, sql, google bigquery, marketing analytics, attribution modeling, statistical methods, data processing, python, pandas, numpy, data interpretation, dashboard creation, google analytics 4, session analysis, traffic source attribution, behavioral analytics, business intelligence, marketing automation</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3293,12 +3294,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sql, data visualization, tableau, statistics, data analysis, reporting, data quality, hypothesis formation, testing, ab testing, data research, sql ownership</t>
+          <t>data analysis, sql, tableau, statistics, data science, python, ab testing, data visualization, data mining, data engineering</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>flexible working hours, remote work, work-life balance, health insurance, professional development budget, wellness support, paid time off, paid leave, additional sick leave</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3369,7 +3370,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sql, postgresql, data optimization, data visualization, data reporting, data analysis, sales, customer interaction, webitel</t>
+          <t>sql, postgresql, database optimization, data visualization, datamart, sql query writing, kpi construction, report construction, dashboard interaction, data export-import, db documentation, sql functions (cte, join, window), data analysis, business analysis, data modeling, user requirements gathering, presentation skills, analytical thinking, time management, team support</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3462,12 +3463,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, mysql, postgresql, tableau, power bi, looker, google analytics, data modeling, attribution modeling, business intelligence, marketing analytics, product metrics, metric system design, funnel analysis, traffic analysis, conversion analysis, customer journey analysis, analytical skills, problem solving, initiative implementation, team collaboration, social responsibility</t>
+          <t>data analysis, data visualization, sql, mysql, postgresql, tableau, power bi, looker, google analytics, tag manager, attribution modeling, business intelligence, statistical modeling, decision support.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>flexible company culture, professional growth opportunities, competitive salary, regular performance reviews, social responsibility projects, health insurance, well-being package, language learning reimbursement, paid time off.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3553,12 +3554,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>data analysis, user experience, cognitive psychology, mobile app development, artificial intelligence, software development, agile methodologies, database management, data visualization, project management, teamwork</t>
+          <t>data analysis, data visualization, sql, python, databases, power bi, tableau, statistics, team management, mentoring, microservices, bi-decision making</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, professional growth opportunities, remote work options, competitive compensation, health insurance, vacation leave, corporate benefits</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3630,12 +3631,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>python, sql, bigquery, semrush, google data studio, looker, powerbi, data visualization, statistical knowledge, machine learning, a/b testing, data interpretation, communication skills</t>
+          <t>data analysis, sql, statistical methods, ml models, data visualization, google search console, bigquery, semrush, ab testing, python, data warehouse, monitoring, reporting, customer acquisition, search strategy</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, flexible work arrangement, professional development support, well-being resources, collaborative work space</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3693,12 +3694,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, statistics, python, machine learning, algorithms, problem solving, git, collaboration, web development, html, css, api integration, linux, technical writing, project management, communication, teamwork, Agile, software development, css3, html5</t>
+          <t>data modeling, data visualization, sql, tableau, powerbi, python, looker, r, problem-solving, communication, mentorship, time management, scheduling</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international expansion, remote work, flexible schedule, hourly pay, minimal bureaucracy, opportunities for growth, international environment</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3762,7 +3763,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data visualization, power bi, tableau, sql, data processing, bigquery, python, data analysis, analytical modeling, data automation, collaboration, business intelligence, communication skills, analytical thinking, problem solving, responsibility, time management, result orientation</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3869,12 +3870,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>data analysis, statistics, machine learning, python, java, c++, high-frequency trading, signal-driven strategies, trading, finance, futures markets, math, computational models, risk management, team collaboration, agile</t>
+          <t>data analysis, data visualization, python, etl/elt, sql, numpy, polars, matplotlib, bokeh, scikit-learn, machine learning</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>flexible schedule, professional development opportunities, international environment, cutting-edge technology, diverse team</t>
+          <t>professional development, competitive pay, health insurance, international environment, teamwork, remote work</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3937,17 +3938,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>remote</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, data visualization, data automation, programming, statistical modeling, machine learning, computer science, mathematics, economics, sql, python, data mining, patterns recognition, etl, bi tools, reporting</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>remote work, competitive salary, career development, professional growth, conference participation, paid vacation, health insurance, flexible schedule, language training, social clubs</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4000,7 +4001,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>data analysis, mssql, math, statistics, logistics, operations research, warehouse management, warehouse optimization, sql, analytics, crm, erp, wms, 1c</t>
+          <t>data analysis, warehouse management, logistics, etl, python, sql, bi-analytics, erp, wms, crm, data visualization, forecasting, kpi analysis, decision making, analytical systems, supply chain management, cross-docking, multimodal transportation, ecommerce, 3pl, fulfillment, time management, adaptability, english language</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4091,7 +4092,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, machine learning, artificial intelligence, document processing, natural language processing, programming (inferring coding skills required), project management, problem solving</t>
+          <t>data analysis, data visualization, sql, google sheets excel, python, r, annotation, preprocessing, machine learning, deep learning, model development, data quality, data mining, data annotation, predictive modeling</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4165,12 +4166,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>data visualization, machine learning, artificial intelligence, software development, mobile app development, cognitive psychology</t>
+          <t>sql, python, databases, power bi, data visualization, statistics, data analysis, communication skills, leadership, team management, mentoring</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>flexible work environment, professional growth opportunities, international teamwork</t>
+          <t>international environment, career growth, training opportunities, healthcare benefits, flexible vacation policy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4242,7 +4243,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>communication, analytical thinking, problem solving, data analysis, problem-solving, data visualization, sql, data management, business analysis, project management, agile methodologies, collaboration, microsoft office, excel</t>
+          <t>data quality, data analysis, sql, data visualization, time management, communication, problem solving, self organization, project management, analytical skills, process improvement, data sourcing, data storage</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4314,12 +4315,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, data visualization, tableaus, sql, data modeling, stakeholder collaboration, business intelligence, analytics, experience with reports, data integrity, english</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>competitive salary, remote work, professional development, english courses, training, team environment</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4382,12 +4383,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>data visualization, data analysis,sql,microsoft power bi,product development,agile development,collaboration,analysis,statistics,math, programming, data science</t>
+          <t>data analysis, data visualization, tableau, sql, python, data engineering, tablea, bigquery, statistical theory, probability theory, data pipelines, research skills</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>flexible work, training opportunities, professional development, diverse international environment, career growth opportunities, employee recognition, access to big data, modern technologies, continuous learning</t>
+          <t>international environment, opportunities for implementation, fast decision making, autonomous work, training, economic contribution</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4460,12 +4461,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>analysis, data mining, data visualization, sql, data processing, statistics, machine learning, python, predictive modeling, data management, data handling</t>
+          <t>data analysis, data visualization, data merging, data validation, data cleaning, data transformation, sql, python, excel, statistical methods, hypothesis-oriented analysis, big data, data science, reporting, powerpoint, presentation, automation, data processing, data mining, machine learning</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>opportunities for growth, opportunities to work with big clients, international environment, flexible work policies, teamwork, collaboration</t>
+          <t>international projects, international teams, global client base, career growth, professional development, teamwork, client communication, company culture, custom benefits</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4513,12 +4514,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>data analysis, sql, python, customer experience, emotional engagement, marketing, credit decisioning, api integration, backend development, product design, fullstack development, agile methodologies, cloud services, linux, no database</t>
+          <t>data visualization, sql, database management, data analytics, clickhouse, business intelligence, looker studio, code review, coding standards, git, dbt, communication, problem solving</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>flexible working hours, international environment, opportunities for growth, competitive salary, market leadership, dynamic team, employee benefits, retirement plan, health insurance, opportunities for professional development</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4578,12 +4579,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>sql, data analysis, data visualization, python, data warehousing, data quality, data cleansing, ad-hoc queries, database optimization, power bi, tableau, looker, data lake, crm systems</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>health insurance, preferential food, international environment, charitable projects, orphanage visits, official employment, social package, legislative compliance</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4641,7 +4642,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>data analysis, sql, mysql, postgresql, excel, data visualization, marketing analytics, product analytics, b2c saas metrics, google analytics, tableau, git</t>
+          <t>python, sql, mysql, postgresql, excel, git, google analytics, tableau, data visualization, business intelligence, a/b testing, marketing analysis, data mining, data science, statistics</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4720,7 +4721,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>data visualization, sql, data automation, dashboard design, funnel analysis, business intelligence, storytelling, data analysis, cross-functional collaboration, marketing analytics, sales analytics, operations analysis, business metrics, reporting</t>
+          <t>sql, data visualization, power bi, communication, interpersonal skills, event tracking, technical writing, statistical analysis, amplitude, mixpanel, agile mentality, self-discipline, time management, result orientation, product metrics, a/b testing, data infrastructure development</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4808,12 +4809,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>software development, programming, system design, system development, database management, agile methodology, project management, ideation, data analysis, business analysis, scalability, reliability, team collaboration, communication, python, java, cisco systems</t>
+          <t>data analysis, data engineering, data visualization, data modeling, data pipelines, metrics design, sql, python, airflow, tableau, power bi, google cloud platform, amazon web services, postgreSQL, google bigquery, snowflake, problem solving, business acumen</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>company culture, flexible work environment, career growth, skill development, social environment, team diversity, remote work, quick scaling, innovation studios, prompt start date</t>
+          <t>professional development, flexible work arrangements, transparent decision-making, international work, fast-growing company, data-driven environment</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4889,12 +4890,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, sql, data visualization, database management, business intelligence, reporting, etl, analytics, pattern recognition, project planning, software design, technical documentation, testing, data integration, big data, enterprise software</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>unique experience, real opportunities, remote work, professional growth, friendly environment, career growth, digital innovation, international work.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4948,12 +4949,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, data collection, data reporting, sql, statistics, data metrics, marketing analytics, product metrics, client behavior, sales trends, advertising campaigns, teamwork, communication, reporting tools, analytics software</t>
+          <t>data analysis, data visualization, sql, google sheets, excel, pivot tables, lookup, formulas, tableau, power bi, google data studio, e-commerce, marketing metrics, sales metrics, customer behavior, forecasting, math, problem solving</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>work-life balance, international environment, team collaboration, training and development, career growth, flexible schedule, competitive pay, work from home option</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5018,12 +5019,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>software development, mobile app development, cognitive psychology, memory improvement, attention improvement, mental mathematics, android, ios, product design, project management, agile, teamwork, data analysis, database management</t>
+          <t>sql, python, power bi, tableau, statistics, database management, data visualization, analytical infrastructure, metric trees, forecasting, business growth, mentoring, team management, communication</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, competitive salary, health insurance, corporate doctor, training and development, team support, flexible vacation policy</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5095,12 +5096,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sql, big data, mnesia, data visualization, marketing metrics, tableau, power bi, amplitude, python, ltv forecasting, statistics, analytics, data analysis</t>
+          <t>data analysis, sql, bigquery, tableau, powerbi, marketing metrics, product analysis, data visualization, analytics, statistics</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>career development, internationally environment, flexible working hours, remote work, language learning, cultural events, education resources, self-management</t>
+          <t>flexible schedule, visa support, opportunities for career advancement, online library, continuous education, healthcare insurance, mental health support, professional community, networking, company events, relocation support, remote work, modern equipment</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5212,7 +5213,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, data integration, business analysis, stakeholder management, project management, it project management, technical analysis, risk management, product roadmap, software development, leadership, collaboration, communication, sql, aws, snowflake, workday, jde, salesforce</t>
+          <t>data analysis, data visualization, aws, snowflake, workday, jde, salesforce, sql, database management, power bi, etl, data warehousing, problem-solving, stakeholder management</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5304,12 +5305,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, python, pandas, numpy, tableau, power bi, qlik sense, excel, google docs, marketing metrics, cr, roi, ltv, web analytics, payments, data quality, data validation, bi dashboards</t>
+          <t>data analysis, data visualization, python, pandas, numpy, tableaux, power bi, qlik sense, sql, excel, google docs, business intelligence, statistics, data mining, web analytics</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, flexible schedule, remote work, wellness program, corporate social responsibility, military personnel support, social package, employee benefits, career development, work-life balance, team building activities</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5380,12 +5381,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, business intelligence, sql, excel, Microsoft power bi, data management, procurement, supply chain management, logistics, project management, integrity, human-centricity, teamwork</t>
+          <t>python, data analysis, data visualization, data mining, sql, postgresql, microsoft excel, reporting, data collection, data structuring, data analytics tools, problem solving</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>full employment, office environment, competitive reward, professional development, equal opportunities, nondiscriminatory environment</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5447,17 +5448,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kyiv yogo office</t>
+          <t>Kyiv</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, python, web development, app development, hypothesis testing, product development, analytical system development, web analytics, user experience, sql, rtb</t>
+          <t>sql, a/b testing, data visualization, tableau, data architecture, machine learning, python, java, git, agile methodologies, product development, ux design, data warehousing, data quality, scalability, cloud computing, web development, app development</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>relational package, career growth opportunities, professional development, all-inclusive office, relocation package, social package, well-being program, security support during war</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5582,12 +5583,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sql, postgresql, mysql, data modeling, query optimization, data visualization, tableau, bigquery, python, aws s3, analytical software</t>
+          <t>sql, postgresql, mysql, python, pandas, numpy, scipy, matplotlib, scikit-learn, statsmodels, tableau, data visualization, dashboard development, marketing analysis, google analytics, data quality, dw, a/b testing</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>international environment, flexible work schedule, opportunities for scaling and achieving high results, education support</t>
+          <t>compensation, vocational training, professional development, language learning support, library access, leadership school, flexible work environment, employment, health insurance, paid time off, annual leave, social projects, community support, remuneration lights</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5669,12 +5670,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sql, python, bi tools, data visualization, statistical thinking, analytics, programming, data modeling, business intelligence, data visualization tools, a/b testing, market analysis, business acumen</t>
+          <t>python, sql, bi tools, data visualization, statistical thinking, analytical methodology, product development, market research, data analysis, business intelligence, data modeling, cloud tools, agile methodology, project management, time series analysis, a/b testing, multivariate analysis, machine learning, data mining</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>professional development, stability, social guarantees, health care, safety and comfort, caring environment, transparency, everyone's value and appreciation</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5814,7 +5815,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>python, machine learning, artificial intelligence, data analysis, product strategy, device detection, data visualization, motion detection, object detection, sql</t>
+          <t>data visualization, sql, tableau, etl, data warehousing, statistics, probability theory, aws, linux, python, data analysis, dashboard development, java (computer science fundamentals nice to have), big data analytics, business intelligence, data science, data engineering</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5878,7 +5879,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, database management, sql, python, machine learning, marketing, development, finance, recruiting, data visualization, business intelligence, automation, optimization, statistical analysis, analytics, data science, reporting</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5942,12 +5943,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>data visualization, sql, python, bigquery, tableau, a/b testing, analytics tools, project management, technical documentation, communication, problem solving</t>
+          <t>web and mobile analytics tools, a/b testing, sql, bigquery, python, pandas, numpy, seaborn, matplotlib, tableau, metabase, event-based analytics, data validation, conversion funnel analysis, technical documentation, data visualization, technical requirements, machine learning</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, flexible time, training budget, sports budget, health insurance, paid sick leave, annual leave, career growth opportunities</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6045,12 +6046,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>data analysis, machine learning, statistics, prediction modeling, programming, data visualization, modeling, forecasting, python</t>
+          <t>data visualization, machine learning, statistical analysis, modeling, r, python, power bi, tableau, qlikview, sql, business analytics, problem solving, optimization, communication</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>hybrid work schedule, corporate health insurance, flexible working hours, timely payment, opportunities for professional development, comfortable working conditions, flexible communication options, restored weekend on public holidays</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6111,12 +6112,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>data analysis, sql, data visualization, business intelligence, python, r, statistics, data reporting, data science, machine learning, business acumen, problem-solving</t>
+          <t>data analytics, sql, tableau, statistical knowledge, data visualization, ab testing, data processing, report generation, data mining, data mining, machine learning, product metrics analysis, funnel analysis, business process optimization, user behavior analysis</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>two meeting hubs worldwide, flexible working hours, unlimited recharge and unwind days, health-related support, professional growth support, corporate events, competitive financial compensation</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6190,7 +6191,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>data analysis, machine learning, predictive modeling, sql, python, r, data visualization, marketing mix modeling, geolift, ltv prediction, code optimization, data exploration, statistics, problem-solving, analytical thinking, goal setting, independence</t>
+          <t>python, sql, r, marketing mix modeling, geo lift, ltv prediction, data visualization, data analysis, predictive modeling, problem-solving, data exploration, tableau, metabase, clickhouse, git, airflow, machine learning, optimization</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6286,7 +6287,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>statistics, data visualization, sql, python, a/b testing, funnel analysis</t>
+          <t>data analysis, data visualization, sql, gtm, ga4, marketing metrics, google bigquery, bi systems (looker studio, power bi, tableau), statistics, machine learning, a/b testing, data tracking, marketing automation, product development, product management, collaboration</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6360,7 +6361,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, data modeling, data interpretation, business intelligence, dashboard creation, agile methodologies, teamwork, communication</t>
+          <t>data analysis, visualization, sql, data querying, data manipulation, google analytics, google tag manager, etl/elt, workflow automation, data accuracy, cross-functional team collaboration, business translation, written communication, spoken communication, technical writing, google sheets, amplitude, programming, machine learning, artificial intelligence, llls, relational databases</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6427,12 +6428,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, python, sql, database management, data mining, statistical analysis, machine learning, data processing</t>
+          <t>data visualization, sql, excel, statistical analysis, modeling, data segmentation, business intelligence, a/b testing, data analytics, python, machine learning, customer relationship management, data mining, database management, ms office, statistical software, data warehousing</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>flexible work environment, professional development, international environment, mentorship, teamwork</t>
+          <t>work-life balance, international environment, corporate training, financial stability, health insurance, mobile communication, career growth, equal opportunities, diversity and inclusion</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6510,12 +6511,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, reporting, sql, python, statistics, analytical thinking, problem solving, project management, saas solutions, traffic management, user retention, social discovery, advertising network, data interpretation, business intelligence, dashboard creation</t>
+          <t>data analysis, data visualization, sql, python, excel, bi tools, tableau, programming, analytics, payments</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>fun work environment, international environment, comfortable conditions, flexible work schedule, personal growth opportunities, transparent assessment, fair compensation, supportive team, social package</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6611,12 +6612,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>data analysis, trend identification, automation, reporting, sql, data visualization</t>
+          <t>data analysis, data visualization, power bi, sql, database systems, analytics, reporting, scripting, data structure, communication, collaboration, interpersonal skills, team work</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>international environment, flexible work atmosphere, freedom and independence, opportunities for growth</t>
+          <t>official employment, health insurance, life insurance, paid wages, annual leave, job security, career development, learning opportunities, internal mobility, international opportunities.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -6676,7 +6677,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>data manipulation, data visualization, data analytics, scripting, sql, incident management, problem solving, time management, process improvement, agile methodologies</t>
+          <t>sql, data analytics, incident management, data quality, process management, data engineering, it, brand management, communication, collaboration, project management, problem solving, time management, jira, servicenow</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6749,7 +6750,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>python, pandas, data visualization, data transformation, data modeling, mathematical modeling, scripting, jupyter notebook, javieri, data automation</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6808,7 +6809,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>leader, mentoring, team management, project coordination, people management, data analysis, gsbpm, sdmx, data modeling, python, pandas, etl, data integration, db, dwh, olap, cubee, jira, confluence, data visualization</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6861,12 +6862,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>data analysis, ai, machine learning, software development, product management, process improvement, project management, data visualization, sql, product partnerships, teamwork, office or remote work, collaboration, date work, process mapping, data management, ai application, problem solving</t>
+          <t>data visualization, a/b testing, data analysis, modeling, forecasting, sql, amplitude, tableau, firebase, big query, marketing attribution, subscription systems, analytics tools, communication protocols</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>unlimited vacation, remote work, training budget, corporate discounts, health insurance, hospital support, flexible schedule, team feedback, product owner collaboration.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6938,17 +6939,18 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kyiv abroad.</t>
+          <t>Kyiv abroad 
+Result: kyiv abroad</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sql, data analysis, data modeling, data optimization, data visualization, tableau, power bi, looker studio, metabase, google data studio, google sheets, ms excel, statistical methods, data mining, business intelligence, analytical thinking, communication skills</t>
+          <t>sql, data visualization, tableau, power bi, google data studio, google sheets, excel, analytical thinking, communication skills, learning skills</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>flexible work, competitive salary, bonus system, corporate events, training, english language support, teambuilding, remote work option, comfortable office in center of kyiv/varshava, no bureaucracy, opportunities for growth and development</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7034,12 +7036,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>data analysis, data visualization, sql, python, micro-service architecture, cloud computing, devops, web scraping, data mining, agile methods</t>
+          <t>sql, clickhouse, my sql, postgresql, mssql, data visualization, reporting, bi tools, tableau, power bi, qlikview, qliksense, google data studio, redash, data processing, analytics, dashboarding, machine learning, statistics, probability theory</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>registration bonus, flexible work schedule, mentoring system, team collaboration, remote work option, career development opportunities</t>
+          <t>none</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7109,12 +7111,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>data visualization, sql, data analysis, machine learning, data mining, statistics</t>
+          <t>data analysis, data visualization, sql, bigquery, postgresql, python, r, data modeling, statistics, experimentation, predictive modeling, iGaming industry</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>international environment, remote work, education budget, english courses, medical insurance, product development, professional growth</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7191,12 +7193,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data visualization, sql, tableau, excel, python, statistics, probability theory, mathematics, analytics, problem solving, communication, coding</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>remote work, international environment, sports benefits, medical coverage, home office, childcare budget, family leave, maternity leave, paternity leave, psychological support</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -7262,12 +7264,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>data platform modernization, data governance, data platforms, data strategy, data visualization, business benefits analysis, stakeholder communication, project scoping, solution design, statement of work writing, proposal development, customer engagement, opportunity identification, project implementation, architectural guidance, software evaluation</t>
+          <t>data visualization, data mesh, data fabric, data warehousing, data lakes, data lakehouses, databricks, snowflake, data engineering, cloud data platforms, cloud migration, data modernization, sales proposals, stakeholder collaboration, project management, solution architecture, presales support, client engagement, opportunity identification, technology assessment, data architecture</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>flexible working format, competitive salary, career growth, professional development, education reimbursement, corporate events</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -7334,12 +7336,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>data analysis, data visualization, machine learning, artificial intelligence, deep learning, computer programming, programming knowledge, statistics, sas, python, ai, ml, data science experience</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>mentorship, flexible schedule, remote work options, competitive pay, continued education</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
